--- a/biology/Zoologie/Indozodion_inayatullahi/Indozodion_inayatullahi.xlsx
+++ b/biology/Zoologie/Indozodion_inayatullahi/Indozodion_inayatullahi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indozodion inayatullahi est une espèce d'araignées aranéomorphes de la famille des Zodariidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indozodion inayatullahi est une espèce d'araignées aranéomorphes de la famille des Zodariidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Pakistan[1]. Elle se rencontre au Khyber Pakhtunkhwa et dans le Territoire fédéral d'Islamabad[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Pakistan. Elle se rencontre au Khyber Pakhtunkhwa et dans le Territoire fédéral d'Islamabad.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3,25 mm et la femelle paratype 4,3 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3,25 mm et la femelle paratype 4,3 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par Ovtchinnikov en 2006. Elle est placée dans le genre Tropizodium par Prajapati, Murthappa, Sankaran et Sebastian en 2016[3] puis dans le genre Indozodion par Zamani et Marusik en 2022[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par Ovtchinnikov en 2006. Elle est placée dans le genre Tropizodium par Prajapati, Murthappa, Sankaran et Sebastian en 2016 puis dans le genre Indozodion par Zamani et Marusik en 2022.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Mian Inayatullah[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Mian Inayatullah.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ovtchinnikov, 2006 : « New genus and species of spiders of the subfamily Zodariinae (Araneae, Zodariidae) from Pakistan. » Vestnik Zoologii, vol. 40, no 1, p. 77-79.</t>
         </is>
